--- a/biology/Botanique/World_Register_of_Marine_Species/World_Register_of_Marine_Species.xlsx
+++ b/biology/Botanique/World_Register_of_Marine_Species/World_Register_of_Marine_Species.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le World Register of Marine Species (littéralement en français : « registre mondial des espèces marines  ») souvent abrégé en WoRMS, est une base de données sur internet qui cherche à fournir une liste à jour des noms de taxons des organismes marins[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le World Register of Marine Species (littéralement en français : « registre mondial des espèces marines  ») souvent abrégé en WoRMS, est une base de données sur internet qui cherche à fournir une liste à jour des noms de taxons des organismes marins.
 Elle est considérée comme la principale autorité mondiale pour les taxons marins, tenue à jour en permanence par les meilleurs experts du domaine. 
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WoRMS est créé en 2007[2] et découle du registre européen des espèces marines (en)[3]. Il est principalement financé par l'Union européenne et accueilli par l'Institut Flamand de la Mer à Ostende en Belgique. WoRMS a conclu des accords avec plusieurs autres projets sur la biodiversité et les écosystèmes[3], dont le système Mondial d'Informations sur la Biodiversité et l'Encyclopédie de la Vie. 
-En 2008, WoRMS indique espérer avoir un registre à jour de toutes les espèces marines d'ici à 2010, année où le recensement de la vie marine est achevé[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WoRMS est créé en 2007 et découle du registre européen des espèces marines (en). Il est principalement financé par l'Union européenne et accueilli par l'Institut Flamand de la Mer à Ostende en Belgique. WoRMS a conclu des accords avec plusieurs autres projets sur la biodiversité et les écosystèmes, dont le système Mondial d'Informations sur la Biodiversité et l'Encyclopédie de la Vie. 
+En 2008, WoRMS indique espérer avoir un registre à jour de toutes les espèces marines d'ici à 2010, année où le recensement de la vie marine est achevé.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En  décembre 2021, concernant le contenu de WoRMS, le site officiel annonçait les chiffres suivants :
 Espèces marines acceptées : 239 910  dont 97% vérifiées
 Noms d'espèces marines, incluant les synonymes : 476 571
-Espèces avec image : 37 465 dont 57% vérifiées[5].</t>
+Espèces avec image : 37 465 dont 57% vérifiées.</t>
         </is>
       </c>
     </row>
